--- a/outputs/schedule_staff_s3.xlsx
+++ b/outputs/schedule_staff_s3.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +499,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>837</v>
+        <v>393</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -537,269 +537,138 @@
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>840</v>
+        <v>398</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1p</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>2</v>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>working</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>845</v>
+        <v>428</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1p</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>5p</t>
+          <t>MCd</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>900</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>1170</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>working</t>
-        </is>
+      <c r="I4" s="3" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>875</v>
+        <v>700</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>5p</t>
+          <t>MCd</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>n.a.</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="I5" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>877</v>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>4p</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>1170</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>working</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>922</v>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>4p</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>MCd</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>925</v>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>MCd</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/schedule_staff_s3.xlsx
+++ b/outputs/schedule_staff_s3.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,7 +499,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>393</v>
+        <v>575</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -537,41 +537,41 @@
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>398</v>
+        <v>579</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>1p</t>
+          <t>4p</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>n.a.</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>n.a.</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>n.a.</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
@@ -579,24 +579,22 @@
           <t>no</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>working</t>
-        </is>
+      <c r="I3" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>428</v>
+        <v>624</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>1p</t>
+          <t>4p</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>MCd</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -621,54 +619,318 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>1p</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>working</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>660</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>1p</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>666</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>3p</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>working</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>696</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>3p</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>900</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2p</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>working</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>2p</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
           <t>MCd</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>14</v>
+      <c r="I10" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>MCd</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
